--- a/Bills/Kiran_Kokare_Jobuss.xlsx
+++ b/Bills/Kiran_Kokare_Jobuss.xlsx
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G12" s="100" t="inlineStr">
         <is>
-          <t>27-02-2026</t>
+          <t>28-02-2026</t>
         </is>
       </c>
       <c r="H12" s="12" t="n"/>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="G13" s="55" t="inlineStr">
         <is>
-          <t>02-03-2026</t>
+          <t>03-03-2026</t>
         </is>
       </c>
       <c r="H13" s="56" t="n"/>

--- a/Bills/Kiran_Kokare_Jobuss.xlsx
+++ b/Bills/Kiran_Kokare_Jobuss.xlsx
@@ -2023,7 +2023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,7 +2055,6 @@
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
     <col width="18" customWidth="1" min="24" max="24"/>
-    <col width="18" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2066,122 +2065,117 @@
       </c>
       <c r="B1" s="119" t="inlineStr">
         <is>
-          <t>Working At</t>
+          <t>Employee Code</t>
         </is>
       </c>
       <c r="C1" s="119" t="inlineStr">
         <is>
-          <t>Employee Code</t>
+          <t>Employee Name</t>
         </is>
       </c>
       <c r="D1" s="119" t="inlineStr">
         <is>
-          <t>Employee Name</t>
+          <t>Billing</t>
         </is>
       </c>
       <c r="E1" s="119" t="inlineStr">
         <is>
-          <t>Billing</t>
+          <t>No of days</t>
         </is>
       </c>
       <c r="F1" s="119" t="inlineStr">
         <is>
-          <t>No of days</t>
+          <t>Eligible Days</t>
         </is>
       </c>
       <c r="G1" s="119" t="inlineStr">
         <is>
-          <t>Eligible Days</t>
+          <t>No of Saturdays</t>
         </is>
       </c>
       <c r="H1" s="119" t="inlineStr">
         <is>
-          <t>No of Saturdays</t>
+          <t>No of Sundays</t>
         </is>
       </c>
       <c r="I1" s="119" t="inlineStr">
         <is>
-          <t>No of Sundays</t>
+          <t>No of Holidays</t>
         </is>
       </c>
       <c r="J1" s="119" t="inlineStr">
         <is>
-          <t>No of Holidays</t>
+          <t>Total Present</t>
         </is>
       </c>
       <c r="K1" s="119" t="inlineStr">
         <is>
-          <t>Total Present</t>
+          <t>Total Working Days</t>
         </is>
       </c>
       <c r="L1" s="119" t="inlineStr">
         <is>
-          <t>Total Working Days</t>
+          <t>Absents this Month</t>
         </is>
       </c>
       <c r="M1" s="119" t="inlineStr">
         <is>
-          <t>Absents this Month</t>
+          <t>Adjustment of Days</t>
         </is>
       </c>
       <c r="N1" s="119" t="inlineStr">
         <is>
-          <t>Adjustment of Days</t>
+          <t>Total Payable Days</t>
         </is>
       </c>
       <c r="O1" s="119" t="inlineStr">
         <is>
-          <t>Total Payable Days</t>
+          <t>Total Payable Billing</t>
         </is>
       </c>
       <c r="P1" s="119" t="inlineStr">
         <is>
-          <t>Total Payable Billing</t>
+          <t>Charges</t>
         </is>
       </c>
       <c r="Q1" s="119" t="inlineStr">
         <is>
-          <t>Charges</t>
+          <t>Out of Pocket Exp</t>
         </is>
       </c>
       <c r="R1" s="119" t="inlineStr">
         <is>
-          <t>Out of Pocket Exp</t>
+          <t>Arrears</t>
         </is>
       </c>
       <c r="S1" s="119" t="inlineStr">
         <is>
-          <t>Arrears</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="T1" s="119" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Grand Total</t>
         </is>
       </c>
       <c r="U1" s="119" t="inlineStr">
         <is>
+          <t>Remark</t>
+        </is>
+      </c>
+      <c r="V1" s="119" t="inlineStr">
+        <is>
           <t>CGST @9%</t>
         </is>
       </c>
-      <c r="V1" s="119" t="inlineStr">
+      <c r="W1" s="119" t="inlineStr">
         <is>
           <t>SGST @9%</t>
         </is>
       </c>
-      <c r="W1" s="119" t="inlineStr">
+      <c r="X1" s="119" t="inlineStr">
         <is>
           <t>IGST @18%</t>
-        </is>
-      </c>
-      <c r="X1" s="119" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="Y1" s="119" t="inlineStr">
-        <is>
-          <t>Remark</t>
         </is>
       </c>
     </row>
@@ -2193,80 +2187,75 @@
       </c>
       <c r="B2" s="120" t="inlineStr">
         <is>
-          <t>Hathway Digital Ltd.</t>
+          <t>JB-10184</t>
         </is>
       </c>
       <c r="C2" s="120" t="inlineStr">
         <is>
-          <t>JB-10184</t>
-        </is>
-      </c>
-      <c r="D2" s="120" t="inlineStr">
-        <is>
           <t>MAYUR DINANATH PATIL</t>
         </is>
       </c>
+      <c r="D2" s="120" t="n">
+        <v>62500</v>
+      </c>
       <c r="E2" s="120" t="n">
-        <v>62500</v>
+        <v>31</v>
       </c>
       <c r="F2" s="120" t="n">
         <v>31</v>
       </c>
       <c r="G2" s="120" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H2" s="120" t="n">
         <v>4</v>
       </c>
       <c r="I2" s="120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" s="120" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K2" s="120" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L2" s="120" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M2" s="120" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="120" t="n">
+        <v>31</v>
+      </c>
+      <c r="O2" s="120" t="n">
+        <v>62500</v>
+      </c>
+      <c r="P2" s="120" t="n">
+        <v>6250</v>
+      </c>
+      <c r="Q2" s="120" t="n">
         <v>0</v>
-      </c>
-      <c r="O2" s="120" t="n">
-        <v>31</v>
-      </c>
-      <c r="P2" s="120" t="n">
-        <v>62500</v>
-      </c>
-      <c r="Q2" s="120" t="n">
-        <v>6250</v>
       </c>
       <c r="R2" s="120" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="120" t="n">
-        <v>0</v>
+        <v>68750</v>
       </c>
       <c r="T2" s="120" t="n">
-        <v>68750</v>
+        <v>81125</v>
       </c>
       <c r="U2" s="120" t="n">
-        <v>6187.5</v>
+        <v/>
       </c>
       <c r="V2" s="120" t="n">
         <v>6187.5</v>
       </c>
       <c r="W2" s="120" t="n">
-        <v>0</v>
+        <v>6187.5</v>
       </c>
       <c r="X2" s="120" t="n">
-        <v>81125</v>
-      </c>
-      <c r="Y2" s="120" t="n">
         <v/>
       </c>
     </row>
@@ -2278,80 +2267,75 @@
       </c>
       <c r="B3" s="120" t="inlineStr">
         <is>
-          <t>Hathway Digital Ltd.</t>
+          <t>AB10083</t>
         </is>
       </c>
       <c r="C3" s="120" t="inlineStr">
         <is>
-          <t>AB10083</t>
-        </is>
-      </c>
-      <c r="D3" s="120" t="inlineStr">
-        <is>
           <t>PRANAV DEEPAK SHARMA</t>
         </is>
       </c>
+      <c r="D3" s="120" t="n">
+        <v>77000</v>
+      </c>
       <c r="E3" s="120" t="n">
-        <v>77000</v>
+        <v>31</v>
       </c>
       <c r="F3" s="120" t="n">
         <v>31</v>
       </c>
       <c r="G3" s="120" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H3" s="120" t="n">
         <v>4</v>
       </c>
       <c r="I3" s="120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="120" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K3" s="120" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L3" s="120" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M3" s="120" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="120" t="n">
+        <v>31</v>
+      </c>
+      <c r="O3" s="120" t="n">
+        <v>77000</v>
+      </c>
+      <c r="P3" s="120" t="n">
+        <v>7700</v>
+      </c>
+      <c r="Q3" s="120" t="n">
         <v>0</v>
-      </c>
-      <c r="O3" s="120" t="n">
-        <v>31</v>
-      </c>
-      <c r="P3" s="120" t="n">
-        <v>77000</v>
-      </c>
-      <c r="Q3" s="120" t="n">
-        <v>7700</v>
       </c>
       <c r="R3" s="120" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="120" t="n">
-        <v>0</v>
+        <v>84700</v>
       </c>
       <c r="T3" s="120" t="n">
-        <v>84700</v>
+        <v>99946</v>
       </c>
       <c r="U3" s="120" t="n">
-        <v>7623</v>
+        <v/>
       </c>
       <c r="V3" s="120" t="n">
         <v>7623</v>
       </c>
       <c r="W3" s="120" t="n">
-        <v>0</v>
+        <v>7623</v>
       </c>
       <c r="X3" s="120" t="n">
-        <v>99946</v>
-      </c>
-      <c r="Y3" s="120" t="n">
         <v/>
       </c>
     </row>
@@ -2363,80 +2347,75 @@
       </c>
       <c r="B4" s="120" t="inlineStr">
         <is>
-          <t>Hathway Digital Ltd.</t>
+          <t>JB-10104</t>
         </is>
       </c>
       <c r="C4" s="120" t="inlineStr">
         <is>
-          <t>JB-10104</t>
-        </is>
-      </c>
-      <c r="D4" s="120" t="inlineStr">
-        <is>
           <t>PRASHANT VIJAY SADVELKAR</t>
         </is>
       </c>
+      <c r="D4" s="120" t="n">
+        <v>35340</v>
+      </c>
       <c r="E4" s="120" t="n">
-        <v>35340</v>
+        <v>31</v>
       </c>
       <c r="F4" s="120" t="n">
         <v>31</v>
       </c>
       <c r="G4" s="120" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H4" s="120" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="120" t="n">
+        <v>21</v>
+      </c>
+      <c r="K4" s="120" t="n">
+        <v>30</v>
+      </c>
+      <c r="L4" s="120" t="n">
         <v>1</v>
-      </c>
-      <c r="K4" s="120" t="n">
-        <v>21</v>
-      </c>
-      <c r="L4" s="120" t="n">
-        <v>30</v>
       </c>
       <c r="M4" s="120" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="120" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="O4" s="120" t="n">
-        <v>31</v>
+        <v>35340</v>
       </c>
       <c r="P4" s="120" t="n">
-        <v>35340</v>
+        <v>3534</v>
       </c>
       <c r="Q4" s="120" t="n">
-        <v>3534</v>
+        <v>0</v>
       </c>
       <c r="R4" s="120" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="120" t="n">
-        <v>0</v>
+        <v>38874</v>
       </c>
       <c r="T4" s="120" t="n">
-        <v>38874</v>
+        <v>45871.32</v>
       </c>
       <c r="U4" s="120" t="n">
-        <v>3498.66</v>
+        <v/>
       </c>
       <c r="V4" s="120" t="n">
         <v>3498.66</v>
       </c>
       <c r="W4" s="120" t="n">
-        <v>0</v>
+        <v>3498.66</v>
       </c>
       <c r="X4" s="120" t="n">
-        <v>45871.32</v>
-      </c>
-      <c r="Y4" s="120" t="n">
         <v/>
       </c>
     </row>
@@ -2448,80 +2427,75 @@
       </c>
       <c r="B5" s="120" t="inlineStr">
         <is>
-          <t>Hathway Digital Ltd.</t>
+          <t>JB-10177</t>
         </is>
       </c>
       <c r="C5" s="120" t="inlineStr">
         <is>
-          <t>JB-10177</t>
-        </is>
-      </c>
-      <c r="D5" s="120" t="inlineStr">
-        <is>
           <t>ROHIT SAMPAT UMBARKAR</t>
         </is>
       </c>
+      <c r="D5" s="120" t="n">
+        <v>35000</v>
+      </c>
       <c r="E5" s="120" t="n">
-        <v>35000</v>
+        <v>31</v>
       </c>
       <c r="F5" s="120" t="n">
         <v>31</v>
       </c>
       <c r="G5" s="120" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H5" s="120" t="n">
         <v>4</v>
       </c>
       <c r="I5" s="120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="120" t="n">
+        <v>21</v>
+      </c>
+      <c r="K5" s="120" t="n">
+        <v>30</v>
+      </c>
+      <c r="L5" s="120" t="n">
         <v>1</v>
-      </c>
-      <c r="K5" s="120" t="n">
-        <v>21</v>
-      </c>
-      <c r="L5" s="120" t="n">
-        <v>30</v>
       </c>
       <c r="M5" s="120" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="120" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="O5" s="120" t="n">
-        <v>31</v>
+        <v>35000</v>
       </c>
       <c r="P5" s="120" t="n">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="Q5" s="120" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="R5" s="120" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="120" t="n">
-        <v>0</v>
+        <v>38500</v>
       </c>
       <c r="T5" s="120" t="n">
-        <v>38500</v>
+        <v>45430</v>
       </c>
       <c r="U5" s="120" t="n">
-        <v>3465</v>
+        <v/>
       </c>
       <c r="V5" s="120" t="n">
         <v>3465</v>
       </c>
       <c r="W5" s="120" t="n">
-        <v>0</v>
+        <v>3465</v>
       </c>
       <c r="X5" s="120" t="n">
-        <v>45430</v>
-      </c>
-      <c r="Y5" s="120" t="n">
         <v/>
       </c>
     </row>
@@ -2533,7 +2507,10 @@
       </c>
       <c r="B6" s="121" t="n"/>
       <c r="C6" s="121" t="n"/>
-      <c r="D6" s="121" t="n"/>
+      <c r="D6" s="121">
+        <f>ROUND(SUM(D2:D5), 0)</f>
+        <v/>
+      </c>
       <c r="E6" s="121">
         <f>ROUND(SUM(E2:E5), 0)</f>
         <v/>
@@ -2595,26 +2572,22 @@
         <v/>
       </c>
       <c r="T6" s="121">
-        <f>ROUND(SUM(T2:T5), 0)</f>
-        <v/>
-      </c>
-      <c r="U6" s="121">
-        <f>CEILING(SUM(U2:U5), 1)</f>
-        <v/>
-      </c>
+        <f>ROUND(SUM(S6), 0)</f>
+        <v/>
+      </c>
+      <c r="U6" s="121" t="n"/>
       <c r="V6" s="121">
         <f>CEILING(SUM(V2:V5), 1)</f>
         <v/>
       </c>
       <c r="W6" s="121">
-        <f>ROUND(SUM(W2:W5), 0)</f>
+        <f>CEILING(SUM(W2:W5), 1)</f>
         <v/>
       </c>
       <c r="X6" s="121">
-        <f>ROUND(SUM(T6,U6,V6,W6), 0)</f>
-        <v/>
-      </c>
-      <c r="Y6" s="121" t="n"/>
+        <f>ROUND(SUM(X2:X5), 0)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bills/Kiran_Kokare_Jobuss.xlsx
+++ b/Bills/Kiran_Kokare_Jobuss.xlsx
@@ -568,7 +568,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -862,7 +862,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1695,7 +1699,7 @@
       <c r="F21" s="107" t="n"/>
       <c r="G21" s="108" t="n"/>
       <c r="H21" s="109" t="n">
-        <v>20774</v>
+        <v>20775</v>
       </c>
     </row>
     <row r="22" ht="16.2" customHeight="1" thickBot="1">
@@ -1711,13 +1715,13 @@
       <c r="F22" s="110" t="n"/>
       <c r="G22" s="111" t="n"/>
       <c r="H22" s="112" t="n">
-        <v>20774</v>
+        <v>20775</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="22" t="n"/>
       <c r="H23" s="113" t="n">
-        <v>272372</v>
+        <v>272374</v>
       </c>
     </row>
     <row r="24" ht="15.6" customHeight="1">
@@ -1728,7 +1732,7 @@
       </c>
       <c r="B24" s="24" t="inlineStr">
         <is>
-          <t>Two Lakh, Seventy-Two Thousand, Three Hundred And Seventy-Two Only</t>
+          <t>Two Lakh, Seventy-Two Thousand, Three Hundred And Seventy-Four Only</t>
         </is>
       </c>
       <c r="H24" s="105" t="n"/>
@@ -2023,7 +2027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2054,7 +2058,6 @@
     <col width="18" customWidth="1" min="21" max="21"/>
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
-    <col width="18" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2155,27 +2158,22 @@
       </c>
       <c r="T1" s="119" t="inlineStr">
         <is>
+          <t>CGST @9%</t>
+        </is>
+      </c>
+      <c r="U1" s="119" t="inlineStr">
+        <is>
+          <t>SGST @9%</t>
+        </is>
+      </c>
+      <c r="V1" s="119" t="inlineStr">
+        <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="U1" s="119" t="inlineStr">
+      <c r="W1" s="119" t="inlineStr">
         <is>
           <t>Remark</t>
-        </is>
-      </c>
-      <c r="V1" s="119" t="inlineStr">
-        <is>
-          <t>CGST @9%</t>
-        </is>
-      </c>
-      <c r="W1" s="119" t="inlineStr">
-        <is>
-          <t>SGST @9%</t>
-        </is>
-      </c>
-      <c r="X1" s="119" t="inlineStr">
-        <is>
-          <t>IGST @18%</t>
         </is>
       </c>
     </row>
@@ -2195,67 +2193,64 @@
           <t>MAYUR DINANATH PATIL</t>
         </is>
       </c>
-      <c r="D2" s="120" t="n">
+      <c r="D2" s="121" t="n">
         <v>62500</v>
       </c>
-      <c r="E2" s="120" t="n">
+      <c r="E2" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="F2" s="120" t="n">
+      <c r="F2" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="G2" s="120" t="n">
+      <c r="G2" s="121" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="120" t="n">
+      <c r="H2" s="121" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="120" t="n">
+      <c r="I2" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="120" t="n">
+      <c r="J2" s="121" t="n">
         <v>22</v>
       </c>
-      <c r="K2" s="120" t="n">
+      <c r="K2" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="L2" s="120" t="n">
+      <c r="L2" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="120" t="n">
+      <c r="M2" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="120" t="n">
+      <c r="N2" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="O2" s="120" t="n">
+      <c r="O2" s="121" t="n">
         <v>62500</v>
       </c>
-      <c r="P2" s="120" t="n">
+      <c r="P2" s="121" t="n">
         <v>6250</v>
       </c>
-      <c r="Q2" s="120" t="n">
+      <c r="Q2" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="120" t="n">
+      <c r="R2" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="120" t="n">
+      <c r="S2" s="121" t="n">
         <v>68750</v>
       </c>
-      <c r="T2" s="120" t="n">
+      <c r="T2" s="121" t="n">
+        <v>6187.5</v>
+      </c>
+      <c r="U2" s="121" t="n">
+        <v>6187.5</v>
+      </c>
+      <c r="V2" s="121" t="n">
         <v>81125</v>
       </c>
-      <c r="U2" s="120" t="n">
-        <v/>
-      </c>
-      <c r="V2" s="120" t="n">
-        <v>6187.5</v>
-      </c>
       <c r="W2" s="120" t="n">
-        <v>6187.5</v>
-      </c>
-      <c r="X2" s="120" t="n">
         <v/>
       </c>
     </row>
@@ -2275,67 +2270,64 @@
           <t>PRANAV DEEPAK SHARMA</t>
         </is>
       </c>
-      <c r="D3" s="120" t="n">
+      <c r="D3" s="121" t="n">
         <v>77000</v>
       </c>
-      <c r="E3" s="120" t="n">
+      <c r="E3" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="F3" s="120" t="n">
+      <c r="F3" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="G3" s="120" t="n">
+      <c r="G3" s="121" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="120" t="n">
+      <c r="H3" s="121" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="120" t="n">
+      <c r="I3" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="120" t="n">
+      <c r="J3" s="121" t="n">
         <v>22</v>
       </c>
-      <c r="K3" s="120" t="n">
+      <c r="K3" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="L3" s="120" t="n">
+      <c r="L3" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="120" t="n">
+      <c r="M3" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="N3" s="120" t="n">
+      <c r="N3" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="O3" s="120" t="n">
+      <c r="O3" s="121" t="n">
         <v>77000</v>
       </c>
-      <c r="P3" s="120" t="n">
+      <c r="P3" s="121" t="n">
         <v>7700</v>
       </c>
-      <c r="Q3" s="120" t="n">
+      <c r="Q3" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="120" t="n">
+      <c r="R3" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="120" t="n">
+      <c r="S3" s="121" t="n">
         <v>84700</v>
       </c>
-      <c r="T3" s="120" t="n">
+      <c r="T3" s="121" t="n">
+        <v>7623</v>
+      </c>
+      <c r="U3" s="121" t="n">
+        <v>7623</v>
+      </c>
+      <c r="V3" s="121" t="n">
         <v>99946</v>
       </c>
-      <c r="U3" s="120" t="n">
-        <v/>
-      </c>
-      <c r="V3" s="120" t="n">
-        <v>7623</v>
-      </c>
       <c r="W3" s="120" t="n">
-        <v>7623</v>
-      </c>
-      <c r="X3" s="120" t="n">
         <v/>
       </c>
     </row>
@@ -2355,67 +2347,64 @@
           <t>PRASHANT VIJAY SADVELKAR</t>
         </is>
       </c>
-      <c r="D4" s="120" t="n">
+      <c r="D4" s="121" t="n">
         <v>35340</v>
       </c>
-      <c r="E4" s="120" t="n">
+      <c r="E4" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="F4" s="120" t="n">
+      <c r="F4" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="G4" s="120" t="n">
+      <c r="G4" s="121" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="120" t="n">
+      <c r="H4" s="121" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="120" t="n">
+      <c r="I4" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="120" t="n">
+      <c r="J4" s="121" t="n">
         <v>21</v>
       </c>
-      <c r="K4" s="120" t="n">
+      <c r="K4" s="121" t="n">
         <v>30</v>
       </c>
-      <c r="L4" s="120" t="n">
+      <c r="L4" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="120" t="n">
+      <c r="M4" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="N4" s="120" t="n">
+      <c r="N4" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="O4" s="120" t="n">
+      <c r="O4" s="121" t="n">
         <v>35340</v>
       </c>
-      <c r="P4" s="120" t="n">
+      <c r="P4" s="121" t="n">
         <v>3534</v>
       </c>
-      <c r="Q4" s="120" t="n">
+      <c r="Q4" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="120" t="n">
+      <c r="R4" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="120" t="n">
+      <c r="S4" s="121" t="n">
         <v>38874</v>
       </c>
-      <c r="T4" s="120" t="n">
+      <c r="T4" s="121" t="n">
+        <v>3498.66</v>
+      </c>
+      <c r="U4" s="121" t="n">
+        <v>3498.66</v>
+      </c>
+      <c r="V4" s="121" t="n">
         <v>45871.32</v>
       </c>
-      <c r="U4" s="120" t="n">
-        <v/>
-      </c>
-      <c r="V4" s="120" t="n">
-        <v>3498.66</v>
-      </c>
       <c r="W4" s="120" t="n">
-        <v>3498.66</v>
-      </c>
-      <c r="X4" s="120" t="n">
         <v/>
       </c>
     </row>
@@ -2435,159 +2424,152 @@
           <t>ROHIT SAMPAT UMBARKAR</t>
         </is>
       </c>
-      <c r="D5" s="120" t="n">
+      <c r="D5" s="121" t="n">
         <v>35000</v>
       </c>
-      <c r="E5" s="120" t="n">
+      <c r="E5" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="F5" s="120" t="n">
+      <c r="F5" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="G5" s="120" t="n">
+      <c r="G5" s="121" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="120" t="n">
+      <c r="H5" s="121" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="120" t="n">
+      <c r="I5" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="120" t="n">
+      <c r="J5" s="121" t="n">
         <v>21</v>
       </c>
-      <c r="K5" s="120" t="n">
+      <c r="K5" s="121" t="n">
         <v>30</v>
       </c>
-      <c r="L5" s="120" t="n">
+      <c r="L5" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="120" t="n">
+      <c r="M5" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="120" t="n">
+      <c r="N5" s="121" t="n">
         <v>31</v>
       </c>
-      <c r="O5" s="120" t="n">
+      <c r="O5" s="121" t="n">
         <v>35000</v>
       </c>
-      <c r="P5" s="120" t="n">
+      <c r="P5" s="121" t="n">
         <v>3500</v>
       </c>
-      <c r="Q5" s="120" t="n">
+      <c r="Q5" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="120" t="n">
+      <c r="R5" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="120" t="n">
+      <c r="S5" s="121" t="n">
         <v>38500</v>
       </c>
-      <c r="T5" s="120" t="n">
+      <c r="T5" s="121" t="n">
+        <v>3465</v>
+      </c>
+      <c r="U5" s="121" t="n">
+        <v>3465</v>
+      </c>
+      <c r="V5" s="121" t="n">
         <v>45430</v>
       </c>
-      <c r="U5" s="120" t="n">
+      <c r="W5" s="120" t="n">
         <v/>
       </c>
-      <c r="V5" s="120" t="n">
-        <v>3465</v>
-      </c>
-      <c r="W5" s="120" t="n">
-        <v>3465</v>
-      </c>
-      <c r="X5" s="120" t="n">
-        <v/>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="121" t="inlineStr">
+      <c r="A6" s="122" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B6" s="121" t="n"/>
-      <c r="C6" s="121" t="n"/>
-      <c r="D6" s="121">
+      <c r="B6" s="122" t="n"/>
+      <c r="C6" s="122" t="n"/>
+      <c r="D6" s="123">
         <f>ROUND(SUM(D2:D5), 0)</f>
         <v/>
       </c>
-      <c r="E6" s="121">
+      <c r="E6" s="123">
         <f>ROUND(SUM(E2:E5), 0)</f>
         <v/>
       </c>
-      <c r="F6" s="121">
+      <c r="F6" s="123">
         <f>ROUND(SUM(F2:F5), 0)</f>
         <v/>
       </c>
-      <c r="G6" s="121">
+      <c r="G6" s="123">
         <f>ROUND(SUM(G2:G5), 0)</f>
         <v/>
       </c>
-      <c r="H6" s="121">
+      <c r="H6" s="123">
         <f>ROUND(SUM(H2:H5), 0)</f>
         <v/>
       </c>
-      <c r="I6" s="121">
+      <c r="I6" s="123">
         <f>ROUND(SUM(I2:I5), 0)</f>
         <v/>
       </c>
-      <c r="J6" s="121">
+      <c r="J6" s="123">
         <f>ROUND(SUM(J2:J5), 0)</f>
         <v/>
       </c>
-      <c r="K6" s="121">
+      <c r="K6" s="123">
         <f>ROUND(SUM(K2:K5), 0)</f>
         <v/>
       </c>
-      <c r="L6" s="121">
+      <c r="L6" s="123">
         <f>ROUND(SUM(L2:L5), 0)</f>
         <v/>
       </c>
-      <c r="M6" s="121">
+      <c r="M6" s="123">
         <f>ROUND(SUM(M2:M5), 0)</f>
         <v/>
       </c>
-      <c r="N6" s="121">
+      <c r="N6" s="123">
         <f>ROUND(SUM(N2:N5), 0)</f>
         <v/>
       </c>
-      <c r="O6" s="121">
+      <c r="O6" s="123">
         <f>ROUND(SUM(O2:O5), 0)</f>
         <v/>
       </c>
-      <c r="P6" s="121">
+      <c r="P6" s="123">
         <f>ROUND(SUM(P2:P5), 0)</f>
         <v/>
       </c>
-      <c r="Q6" s="121">
+      <c r="Q6" s="123">
         <f>ROUND(SUM(Q2:Q5), 0)</f>
         <v/>
       </c>
-      <c r="R6" s="121">
+      <c r="R6" s="123">
         <f>ROUND(SUM(R2:R5), 0)</f>
         <v/>
       </c>
-      <c r="S6" s="121">
+      <c r="S6" s="123">
         <f>ROUND(SUM(S2:S5), 0)</f>
         <v/>
       </c>
-      <c r="T6" s="121">
-        <f>ROUND(SUM(S6), 0)</f>
+      <c r="T6" s="123">
+        <f>CEILING(SUM(T2:T5), 1)</f>
         <v/>
       </c>
-      <c r="U6" s="121" t="n"/>
-      <c r="V6" s="121">
-        <f>CEILING(SUM(V2:V5), 1)</f>
+      <c r="U6" s="123">
+        <f>CEILING(SUM(U2:U5), 1)</f>
         <v/>
       </c>
-      <c r="W6" s="121">
-        <f>CEILING(SUM(W2:W5), 1)</f>
+      <c r="V6" s="123">
+        <f>ROUND(SUM(S6,T6,U6), 0)</f>
         <v/>
       </c>
-      <c r="X6" s="121">
-        <f>ROUND(SUM(X2:X5), 0)</f>
-        <v/>
-      </c>
+      <c r="W6" s="122" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
